--- a/final_quality_predictions.xlsx
+++ b/final_quality_predictions.xlsx
@@ -1438,23 +1438,23 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1472567058100526</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.4794513411620105</v>
+        <v>0.45</v>
       </c>
       <c r="G28" t="n">
-        <v>0.4763541350102862</v>
+        <v>0.4500000000000004</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>🟡 Yellow</t>
+          <t>🟢 Green</t>
         </is>
       </c>
     </row>
@@ -1654,13 +1654,13 @@
         <v>0.04431739183093378</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1555152429900893</v>
+        <v>0.3110304859801785</v>
       </c>
       <c r="F34" t="n">
-        <v>0.4966141357388447</v>
+        <v>0.5277171843368625</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4886767863528781</v>
+        <v>0.5100745119972455</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
@@ -1696,7 +1696,7 @@
         <v>0.4669249818719946</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4673291221087322</v>
+        <v>0.4698670525063621</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1726,13 +1726,13 @@
         <v>0.07016818199634473</v>
       </c>
       <c r="E36" t="n">
-        <v>0.07617317428841087</v>
+        <v>0.1523463485768217</v>
       </c>
       <c r="F36" t="n">
-        <v>0.4897934985564029</v>
+        <v>0.505028133414085</v>
       </c>
       <c r="G36" t="n">
-        <v>0.4799719100313941</v>
+        <v>0.490356812889925</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
@@ -1820,7 +1820,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9959737417651379</v>
+        <v>0.9958657852907177</v>
       </c>
     </row>
     <row r="3">
@@ -1830,7 +1830,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-10-24 17:44:13</t>
+          <t>2025-10-24 18:50:58</t>
         </is>
       </c>
     </row>

--- a/final_quality_predictions.xlsx
+++ b/final_quality_predictions.xlsx
@@ -1438,23 +1438,23 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>0.1472567058100526</v>
       </c>
       <c r="F28" t="n">
-        <v>0.45</v>
+        <v>0.4794513411620105</v>
       </c>
       <c r="G28" t="n">
-        <v>0.4500000000000004</v>
+        <v>0.4763541350102862</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>🟢 Green</t>
+          <t>🟡 Yellow</t>
         </is>
       </c>
     </row>
@@ -1654,13 +1654,13 @@
         <v>0.04431739183093378</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3110304859801785</v>
+        <v>0.1555152429900893</v>
       </c>
       <c r="F34" t="n">
-        <v>0.5277171843368625</v>
+        <v>0.4966141357388447</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5100745119972455</v>
+        <v>0.4886767863528781</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
@@ -1696,7 +1696,7 @@
         <v>0.4669249818719946</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4698670525063621</v>
+        <v>0.4673291221087322</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1726,13 +1726,13 @@
         <v>0.07016818199634473</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1523463485768217</v>
+        <v>0.07617317428841087</v>
       </c>
       <c r="F36" t="n">
-        <v>0.505028133414085</v>
+        <v>0.4897934985564029</v>
       </c>
       <c r="G36" t="n">
-        <v>0.490356812889925</v>
+        <v>0.4799719100313941</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
@@ -1820,7 +1820,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9958657852907177</v>
+        <v>0.9959737417651379</v>
       </c>
     </row>
     <row r="3">
@@ -1830,7 +1830,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
     </row>
     <row r="4">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-10-24 18:50:58</t>
+          <t>2025-10-24 19:27:40</t>
         </is>
       </c>
     </row>
